--- a/misc/src/main/resources/relayr/RSystemDesign.xlsx
+++ b/misc/src/main/resources/relayr/RSystemDesign.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/relayr/src/main/java/com/relayr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/misc/src/main/resources/relayr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C5F933-312C-2A44-9160-329F0F993706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB000C5C-AA99-7B43-B14A-0C3FD76F53FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="35840" windowHeight="21140" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="35840" windowHeight="21940" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>[R SYSTEM] CLOUD DESIGN DIAGRAM</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Centralized config storage GIT based</t>
+  </si>
+  <si>
+    <t>Spring Boot Admin Server</t>
+  </si>
+  <si>
+    <t>Cloud Management Monitoring Notifications</t>
+  </si>
+  <si>
+    <t>ELK</t>
+  </si>
+  <si>
+    <t>Registry Server.</t>
+  </si>
+  <si>
+    <t>Spring Eureka Discovery</t>
+  </si>
+  <si>
+    <t>Sample DB, Perfomance Metrics Throughtput/Latency.</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Discovery client</t>
+  </si>
+  <si>
+    <t>Registry</t>
+  </si>
+  <si>
+    <t>Config server yml configuration</t>
+  </si>
+  <si>
+    <t>Configuration Properties,</t>
+  </si>
+  <si>
+    <t>Ribbon for Feign</t>
+  </si>
+  <si>
+    <t>Client side load balancing and failower.</t>
+  </si>
+  <si>
+    <t>Resilience4J/Hystrix for Feign</t>
+  </si>
+  <si>
+    <t>Circuit breaker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actuator Management end point </t>
+  </si>
+  <si>
+    <t>Spring Boot Admin Cloud Management Monitoring</t>
+  </si>
+  <si>
+    <t>Zipkin/Sleuth Configuration</t>
+  </si>
+  <si>
+    <t>Tracing Sampling</t>
+  </si>
+  <si>
+    <t>Logging configuration</t>
+  </si>
+  <si>
+    <t>Spring Config Server</t>
+  </si>
+  <si>
+    <t>Spring Zipkin</t>
   </si>
   <si>
     <r>
@@ -39,7 +114,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">R System </t>
+      <t>DATA GATEWAY</t>
     </r>
     <r>
       <rPr>
@@ -49,10 +124,176 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>is Cloud based application that consumes tweet stream. 
-System partition tweets based on language and/or any other logical condition. 
-Tweet message is enriched with sentiment analysis and geopositional data.
-System chooses Partition tolerance and Availability over Consistency.</t>
+      <t xml:space="preserve"> partition tweet streem based on language and/or any other logical condition. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KAFKA CLUSTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> performs in cloud load bakancing and delivers tweets to target micorservice.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FUNCTIONAL MICROSERVICE CLUSTER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consumes messages from particular topic/partition and enriches tweet with sentiment analysis and geopositional data. Result is Persisted to Cassandra NoSQL.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DATA WAREHOUSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cassandra, cluster based data storage. Terrabytes of data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ANALYTICS MICROSERVICE CLUSTER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>performsses machine learning and gathered data processing. Data processing includes classification, aggregation, analysis and reporting. Results are stored in classic RDBMS.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RDBMS CLUSTER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Postress SQL, cluster based result data storage. Gigabytes of data.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USER GATEWAY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grants access to the end users to data they need. REST API interfaces for integration with in house front end and 3rd party ERP/CRM systems.</t>
+    </r>
+  </si>
+  <si>
+    <t>Centralized logging based on ELK, monitoring, performance, analysis.</t>
+  </si>
+  <si>
+    <t>Centralized logging Elastick search, Logstash, Kibana, Monitoring, Analysis.</t>
+  </si>
+  <si>
+    <t>Cloud pillars. Not indicated on diagram but important services that set up and run the cloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Spring boot Microservice template</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[R SYSTEM]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is Cloud based application that consumes and analysis tweet stream discovering trends and tendencies. R System helps brands, corporations, investors, politicians make their decisions.</t>
     </r>
   </si>
 </sst>
@@ -60,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +339,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,7 +356,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -115,23 +364,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -152,6 +480,69 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27B11A4-8BE3-CB4A-A95C-13561250A307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1892300" y="381000"/>
+          <a:ext cx="24358600" cy="8470900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -222,15 +613,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>427175</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>452575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -245,7 +636,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2197100" y="2336800"/>
+          <a:off x="2222500" y="2235200"/>
           <a:ext cx="3183075" cy="4991100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -285,7 +676,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>GATE WAY</a:t>
+            <a:t>DATA GATEWAY</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -450,7 +841,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Message streaming to Kafka cluster selecting specific Topic/Partion based balance distribution above.</a:t>
+            <a:t>Message streaming to Kafka cluster choosing specific Topic/Partion based balance distribution above.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
@@ -1057,7 +1448,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> tweet with sentiiment analyses, geoposition and persist in data warehouse.</a:t>
+            <a:t> tweet with sentiiment analysis data, geoposition and persist in data warehouse.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1080,7 +1471,10 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="285750" indent="-285750" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0">
               <a:solidFill>
@@ -1091,7 +1485,10 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:pPr marL="285750" indent="-285750" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0">
               <a:solidFill>
@@ -1105,7 +1502,10 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:pPr marL="285750" indent="-285750" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0">
               <a:solidFill>
@@ -1317,534 +1717,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="Group 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1DDBB5-B592-5647-AC5A-7D5CB595D107}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="14020800" y="2705100"/>
-          <a:ext cx="3416300" cy="3327400"/>
-          <a:chOff x="15011400" y="3860800"/>
-          <a:chExt cx="3416300" cy="3327400"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="31" name="Group 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB94DBA-1337-BD44-B27B-AD005CD19731}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="15011400" y="3860800"/>
-            <a:ext cx="3416300" cy="3327400"/>
-            <a:chOff x="14947900" y="3721100"/>
-            <a:chExt cx="3416300" cy="3327400"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="30" name="Group 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44706E17-CE13-4246-8480-76F3EB806E86}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="14947900" y="3721100"/>
-              <a:ext cx="3086100" cy="3327400"/>
-              <a:chOff x="14947900" y="3721100"/>
-              <a:chExt cx="3086100" cy="3327400"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="23" name="Oval 22">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDA4F46-794F-9B49-A624-7A58BB6A3336}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15290800" y="4140200"/>
-                <a:ext cx="2743200" cy="2743200"/>
-              </a:xfrm>
-              <a:prstGeom prst="ellipse">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr lang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="22" name="Picture 21">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD1A67D-4C95-1343-81C2-4AC3A8E292A2}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15938500" y="5016500"/>
-                <a:ext cx="1440597" cy="965200"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </xdr:spPr>
-          </xdr:pic>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="25" name="Oval 24">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF213CD-060B-5A4C-8AB1-683030D05052}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14947900" y="4699000"/>
-                <a:ext cx="850900" cy="850900"/>
-              </a:xfrm>
-              <a:prstGeom prst="ellipse">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                <a:prstTxWarp prst="textNoShape">
-                  <a:avLst/>
-                </a:prstTxWarp>
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>N5</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="26" name="Oval 25">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486A2473-B231-C640-98CF-68752F79C4EB}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="16116300" y="3721100"/>
-                <a:ext cx="850900" cy="850900"/>
-              </a:xfrm>
-              <a:prstGeom prst="ellipse">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>N1</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="27" name="Oval 26">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD6559E-B4D8-EC4B-BF59-F9BF6FCC62FE}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15494000" y="6197600"/>
-                <a:ext cx="850900" cy="850900"/>
-              </a:xfrm>
-              <a:prstGeom prst="ellipse">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                <a:prstTxWarp prst="textNoShape">
-                  <a:avLst/>
-                </a:prstTxWarp>
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>N4</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="28" name="Oval 27">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA480B3F-D0D5-E647-A941-F3DAF9B4CD96}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="17081500" y="6184900"/>
-                <a:ext cx="850900" cy="850900"/>
-              </a:xfrm>
-              <a:prstGeom prst="ellipse">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                <a:prstTxWarp prst="textNoShape">
-                  <a:avLst/>
-                </a:prstTxWarp>
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" indent="0" algn="ctr"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>N3</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="29" name="Oval 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D97058E-B8AA-7344-8545-2049B1CB7C9C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="17513300" y="4597400"/>
-              <a:ext cx="850900" cy="850900"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>N2</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="Rectangle 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCFD449-DA2D-3A41-A93C-163E5ECBCD80}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15925800" y="4851400"/>
-            <a:ext cx="1689100" cy="266700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>DATA WAREHOUSE</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3972,120 +3844,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>658011</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>23011</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="152" name="Straight Arrow Connector 151">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A95001D-0F50-894A-96D4-A3416F647783}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="126" idx="3"/>
-          <a:endCxn id="27" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11493500" y="4629150"/>
-          <a:ext cx="3198011" cy="677061"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>658011</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>23011</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="157" name="Straight Arrow Connector 156">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49E9E2D-4EC5-E14A-8B52-0E8D7FA1E841}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="129" idx="3"/>
-          <a:endCxn id="27" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11353800" y="4933950"/>
-          <a:ext cx="3337711" cy="372261"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -4945,6 +4703,4844 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D99FA3-9C60-EE41-8810-D2D06134DBD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14020800" y="2705100"/>
+          <a:ext cx="3416300" cy="3327400"/>
+          <a:chOff x="14020800" y="2705100"/>
+          <a:chExt cx="3416300" cy="3327400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="10" name="Group 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF50FD0-D914-FD45-ADE8-494E40CAC05A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="14020800" y="2705100"/>
+            <a:ext cx="3416300" cy="3327400"/>
+            <a:chOff x="14020800" y="2705100"/>
+            <a:chExt cx="3416300" cy="3327400"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="33" name="Group 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1DDBB5-B592-5647-AC5A-7D5CB595D107}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="14020800" y="2705100"/>
+              <a:ext cx="3416300" cy="3327400"/>
+              <a:chOff x="15011400" y="3860800"/>
+              <a:chExt cx="3416300" cy="3327400"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="31" name="Group 30">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB94DBA-1337-BD44-B27B-AD005CD19731}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="15011400" y="3860800"/>
+                <a:ext cx="3416300" cy="3327400"/>
+                <a:chOff x="14947900" y="3721100"/>
+                <a:chExt cx="3416300" cy="3327400"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="30" name="Group 29">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44706E17-CE13-4246-8480-76F3EB806E86}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="14947900" y="3721100"/>
+                  <a:ext cx="3086100" cy="3327400"/>
+                  <a:chOff x="14947900" y="3721100"/>
+                  <a:chExt cx="3086100" cy="3327400"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="23" name="Oval 22">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDA4F46-794F-9B49-A624-7A58BB6A3336}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="15290800" y="4140200"/>
+                    <a:ext cx="2743200" cy="2743200"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="ellipse">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="40000"/>
+                      <a:lumOff val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="22" name="Picture 21">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD1A67D-4C95-1343-81C2-4AC3A8E292A2}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="15938500" y="5016500"/>
+                    <a:ext cx="1440597" cy="965200"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="40000"/>
+                      <a:lumOff val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </xdr:spPr>
+              </xdr:pic>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="25" name="Oval 24">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF213CD-060B-5A4C-8AB1-683030D05052}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="14947900" y="4699000"/>
+                    <a:ext cx="850900" cy="850900"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="ellipse">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                    <a:prstTxWarp prst="textNoShape">
+                      <a:avLst/>
+                    </a:prstTxWarp>
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr marL="0" indent="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <a:t>N5</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="26" name="Oval 25">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486A2473-B231-C640-98CF-68752F79C4EB}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="16116300" y="3721100"/>
+                    <a:ext cx="850900" cy="850900"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="ellipse">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>N1</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="27" name="Oval 26">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD6559E-B4D8-EC4B-BF59-F9BF6FCC62FE}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="15494000" y="6197600"/>
+                    <a:ext cx="850900" cy="850900"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="ellipse">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                    <a:prstTxWarp prst="textNoShape">
+                      <a:avLst/>
+                    </a:prstTxWarp>
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr marL="0" indent="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <a:t>N4</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="28" name="Oval 27">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA480B3F-D0D5-E647-A941-F3DAF9B4CD96}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="17081500" y="6184900"/>
+                    <a:ext cx="850900" cy="850900"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="ellipse">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                    <a:prstTxWarp prst="textNoShape">
+                      <a:avLst/>
+                    </a:prstTxWarp>
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr marL="0" indent="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <a:t>N3</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="29" name="Oval 28">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D97058E-B8AA-7344-8545-2049B1CB7C9C}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="17513300" y="4597400"/>
+                  <a:ext cx="850900" cy="850900"/>
+                </a:xfrm>
+                <a:prstGeom prst="ellipse">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr marL="0" indent="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1400">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>N2</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="32" name="Rectangle 31">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCFD449-DA2D-3A41-A93C-163E5ECBCD80}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="15925800" y="4851400"/>
+                <a:ext cx="1689100" cy="266700"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>DATA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>WAREHOUSE</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="77" name="Arc 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723F1F9B-1F93-4D4A-B441-ECA164D6FF41}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5032411">
+              <a:off x="14744488" y="3408007"/>
+              <a:ext cx="2234135" cy="2234135"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 16200000"/>
+                <a:gd name="adj2" fmla="val 18985926"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="79" name="Arc 78">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F074AE5-FC79-DA4C-AD09-AC997BA84B7A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="9337731">
+              <a:off x="14655800" y="3530599"/>
+              <a:ext cx="2234135" cy="2234135"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 16200000"/>
+                <a:gd name="adj2" fmla="val 18985926"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="80" name="Arc 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776F8BA5-C9DA-8D48-B2DF-71CAE5639438}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="13590369">
+              <a:off x="14503399" y="3429001"/>
+              <a:ext cx="2234135" cy="2234135"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 16200000"/>
+                <a:gd name="adj2" fmla="val 18985926"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="Arc 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F485BF-DC05-9148-9A12-F17BF266F75B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="17720357">
+              <a:off x="14566899" y="3251201"/>
+              <a:ext cx="2234135" cy="2234135"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 16200000"/>
+                <a:gd name="adj2" fmla="val 18985926"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Arc 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B640AC7-70E1-E245-B4CA-B8CFE6692EDC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="392783">
+            <a:off x="14503400" y="3289301"/>
+            <a:ext cx="2476500" cy="2476500"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 16200000"/>
+              <a:gd name="adj2" fmla="val 18985926"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Rectangle 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4048414-259B-944C-9C6E-A1FF899FFB95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18275300" y="1295400"/>
+          <a:ext cx="3606800" cy="6413500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ANALYTICS MIROSERVICE CLUSTER</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Updates</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> and retrains the model. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Learns new models. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Makes prognoses.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Set</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> of processors(batch jobs) that performs bulk data processing. Used to classify, agregate, analyse data and build report out of it. Persist results to RDBMS.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Arrow Connector 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E42CD4-8E55-664D-B906-267A18889DF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="87" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15392400" y="1409700"/>
+          <a:ext cx="3632200" cy="1022350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Straight Arrow Connector 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47DA50A7-6FEC-164A-9E9E-D43F2EC9EE56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="85" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14617700" y="939800"/>
+          <a:ext cx="4394200" cy="1149350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="46" name="Group 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DCBEB07-BBF0-E946-B00E-C6B9DA96E2AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18923000" y="1828800"/>
+          <a:ext cx="2120900" cy="1257300"/>
+          <a:chOff x="18923000" y="1828800"/>
+          <a:chExt cx="2120900" cy="1257300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="Rounded Rectangle 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA89FCD-033D-A14E-B90A-48E089D6B2F1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18923000" y="1828800"/>
+            <a:ext cx="2120900" cy="1257300"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="Rounded Rectangle 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C238714-9818-7940-8C8B-604735333400}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19011900" y="1892300"/>
+            <a:ext cx="1917700" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>EN MODEL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> TRAINER</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="Rounded Rectangle 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05DCE03-0436-3D4D-AE03-E639156376C1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19024600" y="2235200"/>
+            <a:ext cx="1917700" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DE MODEL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> TRAINER</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="Rounded Rectangle 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04D3766-2741-5B44-AC85-62577B967C6D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19037300" y="2578100"/>
+            <a:ext cx="1917700" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>... MODEL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> TRAINER</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Straight Arrow Connector 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BFE685-A950-F64D-BF75-1032D7F9E7C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="97" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15786100" y="1993900"/>
+          <a:ext cx="3251200" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>802489</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>48411</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Straight Arrow Connector 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D720420B-F179-424E-9182-C6C50837290F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17312489" y="2933700"/>
+          <a:ext cx="1724811" cy="772311"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Straight Arrow Connector 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07651F9F-8F29-7C44-BF1C-4A040B2402E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="6"/>
+          <a:endCxn id="101" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17005300" y="5238750"/>
+          <a:ext cx="1943100" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="54" name="Group 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DB6844-F7DA-F848-93D8-9C4774C6E00F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18948400" y="4292600"/>
+          <a:ext cx="2120900" cy="1892300"/>
+          <a:chOff x="18948400" y="4292600"/>
+          <a:chExt cx="2120900" cy="1892300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="45" name="Group 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D05CD67-B7CB-4743-8F8B-3938251F4065}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="18948400" y="4292600"/>
+            <a:ext cx="2120900" cy="1892300"/>
+            <a:chOff x="18923000" y="3441700"/>
+            <a:chExt cx="2120900" cy="1892300"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="101" name="Rounded Rectangle 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F846B84-3CC1-5442-87A0-41F1DE8E8B42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18923000" y="3441700"/>
+              <a:ext cx="2120900" cy="1892300"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="102" name="Rounded Rectangle 101">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC19B299-D0A7-8443-B225-CF660EF7A22A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19011900" y="4356100"/>
+              <a:ext cx="1917700" cy="393700"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ANALYSIS</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="104" name="Rounded Rectangle 103">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713820DE-3886-904E-8A5B-CB20061BEEC2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19024600" y="3937000"/>
+              <a:ext cx="1917700" cy="393700"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>AGGREGATION </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="105" name="Rounded Rectangle 104">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE935733-E62D-F24E-A6EE-100327457F2A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19024600" y="4775200"/>
+              <a:ext cx="1917700" cy="393700"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>REPORTING </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="119" name="Rounded Rectangle 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBC43C6-A795-E848-8E6D-6F1C201A8BD1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19050000" y="4368800"/>
+            <a:ext cx="1917700" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CLASSIFICATION </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Straight Arrow Connector 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8133D9C3-EDAD-854D-9797-CF58E4F62682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="3"/>
+          <a:endCxn id="51" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20967700" y="3289300"/>
+          <a:ext cx="2292350" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="Straight Arrow Connector 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60235B3-7FA8-7444-9B71-C6140500B5D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="104" idx="3"/>
+          <a:endCxn id="51" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20967700" y="3289300"/>
+          <a:ext cx="2292350" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="Straight Arrow Connector 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB7AA31-4B9F-8743-BDEF-AE9FB068D1DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="3"/>
+          <a:endCxn id="51" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20955000" y="3289300"/>
+          <a:ext cx="2305050" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="Straight Arrow Connector 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9436AC6B-536C-9546-AFBF-9EC09ABC4A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="3"/>
+          <a:endCxn id="51" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20967700" y="3289300"/>
+          <a:ext cx="2292350" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>230989</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188111</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="Straight Arrow Connector 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB0F703-C16A-4049-B90D-BBEDF78E33B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15915489" y="2628900"/>
+          <a:ext cx="3109111" cy="200811"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="Straight Arrow Connector 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3608ADF2-053F-7D4C-8233-2802250F19FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17437100" y="4006850"/>
+          <a:ext cx="1587500" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="Rectangle 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFDC779F-3FAA-6A49-86C7-76B426618F73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22809200" y="4038600"/>
+          <a:ext cx="2578100" cy="4470400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>USER GATEWAY</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>User data access. Lets user search and visualize gathered data.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Authentification. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Authorization.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Portfolio management.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Pricing.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="Straight Arrow Connector 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3089CA-7519-8C40-BFDA-8708AC0E5193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="20993100" y="2362200"/>
+          <a:ext cx="1447800" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="Rounded Rectangle 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{434DF616-B099-2045-86DD-F664902026B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23444200" y="5943600"/>
+          <a:ext cx="1206500" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>API 3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="165" name="Group 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DEF239E-52DB-5B41-9B9F-D526B0599135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="23444200" y="4457700"/>
+          <a:ext cx="1714500" cy="1651000"/>
+          <a:chOff x="23444200" y="4457700"/>
+          <a:chExt cx="1714500" cy="1651000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="166" name="Rounded Rectangle 165">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26599802-DFCF-924A-A654-E0785A812AFE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23444200" y="4457700"/>
+            <a:ext cx="1651000" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>QUERY SERVER </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="178" name="Rounded Rectangle 177">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4259C49-7AC2-DB4C-B7DF-0D55FF3081F9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23952200" y="5016500"/>
+            <a:ext cx="1206500" cy="406400"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>API 1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="181" name="Rounded Rectangle 180">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6475A93C-9D8B-7548-BE01-E34D05CD0629}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23736300" y="5486400"/>
+            <a:ext cx="1206500" cy="406400"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>API 2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="183" name="Straight Arrow Connector 182">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EF3E81-7E85-9044-BB57-D483D497B66A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="24155400" y="4724400"/>
+            <a:ext cx="0" cy="539750"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="185" name="Straight Arrow Connector 184">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD244BC-E154-8D41-9AEA-29CEF26712D9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="23876000" y="4737100"/>
+            <a:ext cx="12700" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="188" name="Straight Arrow Connector 187">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6A7BC6-B32F-4E42-91A7-331451B3AFA5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="23622000" y="4737100"/>
+            <a:ext cx="25400" cy="1371600"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="197" name="Straight Arrow Connector 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F3A54F-B129-BE4B-BB42-41AAB277950A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="166" idx="0"/>
+          <a:endCxn id="72" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="24269700" y="2806700"/>
+          <a:ext cx="0" cy="1651000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="Rounded Rectangle 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32ED0709-862C-F840-B31D-2830CBFA596D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23253700" y="4940300"/>
+          <a:ext cx="2006600" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>140489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="Straight Arrow Connector 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DC84F6-A745-7D4A-894A-F203210C7004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="210" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25057100" y="5626889"/>
+          <a:ext cx="1549400" cy="24611"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="193" name="Group 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6DE6A5-79B1-7D44-9ADF-E76AE5C8C2A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="26606500" y="4738678"/>
+          <a:ext cx="2032000" cy="2246322"/>
+          <a:chOff x="26606500" y="4738678"/>
+          <a:chExt cx="2032000" cy="2246322"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="210" name="Picture 209" descr="/var/folders/pp/643n4d5j0zn91n6f1_zmb6hrtrrhfm/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/download_229053.png">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3132382-5D3D-A94E-A604-0F6E3D7B3828}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="26606500" y="4738678"/>
+            <a:ext cx="1993900" cy="1776421"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="192" name="Rectangle 191">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB68DE3-2A9E-D448-8EAC-905590E37C1F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="26873200" y="6578600"/>
+            <a:ext cx="1765300" cy="406400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>END  CUSTOMERS</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="209" name="Group 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9466800-641D-1A47-9A67-06D671BC0703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="22110700" y="1676400"/>
+          <a:ext cx="3035300" cy="1752600"/>
+          <a:chOff x="22110700" y="1676400"/>
+          <a:chExt cx="3035300" cy="1752600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="148" name="Group 147">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD84613-63AA-D445-B55A-E2DEBCDCCAC7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="22110700" y="1676400"/>
+            <a:ext cx="3035300" cy="1752600"/>
+            <a:chOff x="22110700" y="1676400"/>
+            <a:chExt cx="3035300" cy="1752600"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="147" name="Group 146">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3E56B4-6249-F744-ACDD-CDED4BEB4921}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="22440900" y="2070100"/>
+              <a:ext cx="2356365" cy="1320800"/>
+              <a:chOff x="22440900" y="2070100"/>
+              <a:chExt cx="2356365" cy="1320800"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="168" name="Magnetic Disk 167">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{673387BB-8ED5-9443-B242-37E1CB15E110}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="22682200" y="2070100"/>
+                <a:ext cx="1416908" cy="812800"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartMagneticDisk">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="170" name="Magnetic Disk 169">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9B42A5-B787-9B41-ABC5-C19AA41D3767}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="23291800" y="2120900"/>
+                <a:ext cx="1505465" cy="863600"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartMagneticDisk">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="131" name="Group 130">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F7DBE9-ACE3-F042-97A0-E92E273B3968}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="22440900" y="2222500"/>
+                <a:ext cx="1828800" cy="1168400"/>
+                <a:chOff x="22440900" y="2222500"/>
+                <a:chExt cx="1828800" cy="1168400"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="51" name="Magnetic Disk 50">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C81565-8828-DD49-8E2E-355E933093BE}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="22440900" y="2349500"/>
+                  <a:ext cx="1638300" cy="939800"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartMagneticDisk">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>	</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="72" name="Picture 71">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5C9846-1B50-B34F-A1B2-43F8F0C20002}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvPicPr>
+                  <a:picLocks noChangeAspect="1"/>
+                </xdr:cNvPicPr>
+              </xdr:nvPicPr>
+              <xdr:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </xdr:blipFill>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="23101300" y="2222500"/>
+                  <a:ext cx="1168400" cy="1168400"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+            </xdr:pic>
+          </xdr:grpSp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="172" name="Rounded Rectangle 171">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3680C1AD-DEDC-244E-A95F-1AC5B7FD3163}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22110700" y="1676400"/>
+              <a:ext cx="3035300" cy="1752600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>RDBMS CLUSTER</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="198" name="Straight Arrow Connector 197">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C7D540-BDE1-0246-9063-E07880311A37}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="23114000" y="2159000"/>
+            <a:ext cx="139700" cy="368300"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="219" name="Straight Arrow Connector 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA844CF-8F7A-864A-A32B-3E2E27C0B530}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="23190200" y="2247900"/>
+            <a:ext cx="660400" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>26978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="217" name="Group 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F47FFEF2-30CA-B242-9CC6-1C9F29BC9181}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2819400" y="7342178"/>
+          <a:ext cx="3873500" cy="1293822"/>
+          <a:chOff x="2819400" y="7342178"/>
+          <a:chExt cx="3873500" cy="1293822"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="214" name="Picture 213">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A21F3A-B49F-F44A-AF3A-C7687C29CCC8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2819400" y="7442200"/>
+            <a:ext cx="673100" cy="604938"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="228" name="Rectangle 227">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02ACC6A6-6DB5-6C49-B9E8-500D6B5DA17A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3632200" y="7342178"/>
+            <a:ext cx="3060700" cy="760422"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Cloud</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> pillars:</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Eureka,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Config, Admin,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Zipkin. </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Powered by </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Spring Boot.</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="215" name="Picture 214">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1ABC769-9105-F34A-82BA-661D052D9CC2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2870200" y="8204200"/>
+            <a:ext cx="1217214" cy="431800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="231" name="Rectangle 230">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378A30F8-F13C-3349-8E69-C5D742BDA558}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4178300" y="8255000"/>
+            <a:ext cx="2349500" cy="355600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Loging monitoring analysis. </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>658011</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23011</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="Straight Arrow Connector 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A95001D-0F50-894A-96D4-A3416F647783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="126" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11493500" y="4629150"/>
+          <a:ext cx="3198011" cy="677061"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>658011</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23011</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="Straight Arrow Connector 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49E9E2D-4EC5-E14A-8B52-0E8D7FA1E841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="129" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11353800" y="4933950"/>
+          <a:ext cx="3337711" cy="372261"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>636639</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="Rounded Rectangle 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B2F191-B6A5-A749-AA85-40F16C3F3D59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="11226800"/>
+          <a:ext cx="560439" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="Rectangle 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98267C00-73E8-1E45-BCAE-CEF834B8B02D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2730500" y="635000"/>
+          <a:ext cx="4953000" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Legend</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>REST or other integration protocol</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Replication</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="235" name="Straight Arrow Connector 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8476D0A-A78F-AF48-984F-635A176ED904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5359400" y="1009650"/>
+          <a:ext cx="863600" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="239" name="Straight Arrow Connector 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9152A9E-3B2E-C643-AA1B-5CE1C1DA523A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5359400" y="1257300"/>
+          <a:ext cx="1651000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="244" name="Straight Arrow Connector 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031E56DB-C4D5-2B44-B64E-64EFC2AD996C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6299200" y="1028700"/>
+          <a:ext cx="800100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="229" name="Picture 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46351E77-2EC3-784B-853D-A12DC4DC574B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:lum bright="70000" contrast="-70000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer>
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="1500"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="0"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="1358900"/>
+          <a:ext cx="990600" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5247,28 +9843,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418F5B1-9DD0-8349-B469-8AF4836345C2}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -5277,18 +9873,18 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+    <row r="2" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -5297,18 +9893,18 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+    <row r="3" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -5317,103 +9913,790 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+    <row r="4" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+    <row r="5" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="M46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="M47" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+    <row r="48" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="M48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+    <row r="49" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="M49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+    <row r="50" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="M50" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+    <row r="51" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="M51" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+    </row>
+    <row r="52" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="M52" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+    </row>
+    <row r="53" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" spans="1:23" ht="24" x14ac:dyDescent="0.3">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="M54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="8"/>
+    </row>
+    <row r="55" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="M55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+    </row>
+    <row r="56" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="M56" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+    </row>
+    <row r="57" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="M57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+    </row>
+    <row r="58" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="M58" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+    </row>
+    <row r="59" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="M59" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+    </row>
+    <row r="60" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="M60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+    </row>
+    <row r="61" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="M61" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+    </row>
+    <row r="62" spans="1:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="M62" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+    </row>
+    <row r="64" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+    </row>
+    <row r="71" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+    </row>
+    <row r="72" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+    </row>
+    <row r="73" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+    </row>
+    <row r="74" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+    </row>
+    <row r="75" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+    </row>
+    <row r="76" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+    </row>
+    <row r="77" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+    </row>
+    <row r="78" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+    </row>
+    <row r="79" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+    </row>
+    <row r="80" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+    </row>
+    <row r="81" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+    </row>
+    <row r="82" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+    </row>
+    <row r="83" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+    </row>
+    <row r="84" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+    </row>
+    <row r="85" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+    </row>
+    <row r="86" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+    </row>
+    <row r="87" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:K5"/>
-    <mergeCell ref="A46:K50"/>
+  <mergeCells count="39">
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:U62"/>
+    <mergeCell ref="A46:K47"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A50:K51"/>
+    <mergeCell ref="A53:K54"/>
+    <mergeCell ref="A56:K57"/>
+    <mergeCell ref="Q52:W52"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:U60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:U61"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:U57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:U58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:U59"/>
+    <mergeCell ref="M54:U54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:U55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:U56"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="Q51:W51"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="Q48:W48"/>
+    <mergeCell ref="Q49:W49"/>
+    <mergeCell ref="Q50:W50"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="Q47:W47"/>
+    <mergeCell ref="M46:W46"/>
+    <mergeCell ref="A1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/misc/src/main/resources/relayr/RSystemDesign.xlsx
+++ b/misc/src/main/resources/relayr/RSystemDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/misc/src/main/resources/relayr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB52B150-E9C5-0E4D-8276-A0E72E636BB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6D8DFA-EE7D-984F-BA65-6B5A6F68BE60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74880" yWindow="780" windowWidth="36480" windowHeight="21140" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
+    <workbookView xWindow="0" yWindow="1240" windowWidth="35840" windowHeight="21140" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="RSystemDesign" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>[R SYSTEM] CLOUD DESIGN DIAGRAM</t>
   </si>
@@ -126,10 +126,6 @@
       </rPr>
       <t>consumes messages from particular topic/partition and enriches tweet with sentiment analysis and geopositional data. Result is Persisted to Cassandra NoSQL.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>Centralized logging based on ELK, monitoring, performance, analysis.</t>
@@ -314,12 +310,74 @@
   <si>
     <t>Sentiment analysis and geo position could be done post cassandra persistence in ANALYTICS MICROSERVICE CLUSTER. I put it before assuming that it is light weight process.</t>
   </si>
+  <si>
+    <t>Open questions</t>
+  </si>
+  <si>
+    <t>https://shermandigital.com/blog/designing-a-cassandra-data-model/</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/24949676/difference-between-partition-key-composite-key-and-clustering-key-in-cassandra</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/cassandra/index.htm</t>
+  </si>
+  <si>
+    <t>https://tech.ebayinc.com/engineering/cassandra-data-modeling-best-practices-part-1/</t>
+  </si>
+  <si>
+    <t>https://medium.com/@marikalam/study-guide-cassandra-data-consistency-496e5bf9cadb</t>
+  </si>
+  <si>
+    <t>Look at:</t>
+  </si>
+  <si>
+    <t>Data modelling.</t>
+  </si>
+  <si>
+    <t>CREATE TABLE tweet_by_classification (
+  language text,
+  class text,
+  brand text,
+  time timestamp,
+  tweetId text,
+  sentiment text,
+  country text,
+  likes int,
+  topic text,
+  detail1 text,
+  detail2 text,
+  value1 text,
+  value2 text,
+  value3 text
+  PRIMARY KEY ((language, class), brand, time, tweetId)
+  ) WITH CLUSTERING ORDER BY (time DESC)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE tweet (
+  tweetId text,
+  time timestamp,
+  value text,
+  PRIMARY KEY (tweetId, time)
+  ) WITH CLUSTERING ORDER BY (time DESC)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE tweet_by_country  (
+  language text,
+  country text,
+  time timestamp,
+  tweetId text,
+  sentiment text,
+  value text,
+  PRIMARY KEY ((language, country), time, tweetId)
+  ) WITH CLUSTERING ORDER BY (time DESC)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -365,6 +423,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF242729"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -380,7 +450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -440,17 +510,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -459,17 +606,23 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -483,11 +636,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9316,2151 +9495,2151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418F5B1-9DD0-8349-B469-8AF4836345C2}">
-  <dimension ref="A1:AR87"/>
+  <dimension ref="A1:AR127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
     </row>
     <row r="2" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
     </row>
     <row r="3" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
     </row>
     <row r="4" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
     </row>
     <row r="5" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
-      <c r="AR26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
-      <c r="AR30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="5"/>
-      <c r="AR32" s="5"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-      <c r="AO35" s="5"/>
-      <c r="AP35" s="5"/>
-      <c r="AQ35" s="5"/>
-      <c r="AR35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-      <c r="AO36" s="5"/>
-      <c r="AP36" s="5"/>
-      <c r="AQ36" s="5"/>
-      <c r="AR36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
-      <c r="AM37" s="5"/>
-      <c r="AN37" s="5"/>
-      <c r="AO37" s="5"/>
-      <c r="AP37" s="5"/>
-      <c r="AQ37" s="5"/>
-      <c r="AR37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
-      <c r="AR38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="4"/>
+      <c r="AR38" s="4"/>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-      <c r="AR39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
-      <c r="AQ42" s="5"/>
-      <c r="AR42" s="5"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+      <c r="AP42" s="4"/>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="4"/>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-      <c r="AR43" s="5"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
+      <c r="AO43" s="4"/>
+      <c r="AP43" s="4"/>
+      <c r="AQ43" s="4"/>
+      <c r="AR43" s="4"/>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
-      <c r="AR44" s="5"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
-      <c r="AO45" s="5"/>
-      <c r="AP45" s="5"/>
-      <c r="AQ45" s="5"/>
-      <c r="AR45" s="5"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4"/>
+      <c r="AO45" s="4"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="4"/>
+      <c r="AR45" s="4"/>
     </row>
     <row r="46" spans="1:44" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>32</v>
+      <c r="A46" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="7" t="s">
-        <v>30</v>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="9" t="s">
+        <v>29</v>
       </c>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="7" t="s">
-        <v>37</v>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="9" t="s">
+        <v>36</v>
       </c>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="7"/>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="7"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="5"/>
-      <c r="AK46" s="5"/>
-      <c r="AL46" s="5"/>
-      <c r="AM46" s="5"/>
-      <c r="AN46" s="5"/>
-      <c r="AO46" s="5"/>
-      <c r="AP46" s="5"/>
-      <c r="AQ46" s="5"/>
-      <c r="AR46" s="5"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="4"/>
+      <c r="AP46" s="4"/>
+      <c r="AQ46" s="4"/>
+      <c r="AR46" s="4"/>
     </row>
     <row r="47" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="5"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="4"/>
       <c r="M47" s="8" t="s">
         <v>1</v>
       </c>
@@ -11476,403 +11655,403 @@
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="6" t="s">
+      <c r="X47" s="4"/>
+      <c r="Y47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="4"/>
+      <c r="AK47" s="4"/>
+      <c r="AL47" s="4"/>
+      <c r="AM47" s="4"/>
+      <c r="AN47" s="4"/>
+      <c r="AO47" s="4"/>
+      <c r="AP47" s="4"/>
+      <c r="AQ47" s="4"/>
+      <c r="AR47" s="4"/>
+    </row>
+    <row r="48" spans="1:44" ht="19" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4"/>
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="4"/>
+      <c r="AO48" s="4"/>
+      <c r="AP48" s="4"/>
+      <c r="AQ48" s="4"/>
+      <c r="AR48" s="4"/>
+    </row>
+    <row r="49" spans="1:44" ht="19" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
+      <c r="AO49" s="4"/>
+      <c r="AP49" s="4"/>
+      <c r="AQ49" s="4"/>
+      <c r="AR49" s="4"/>
+    </row>
+    <row r="50" spans="1:44" ht="19" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
-      <c r="AE47" s="6"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
-      <c r="AM47" s="5"/>
-      <c r="AN47" s="5"/>
-      <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
-      <c r="AQ47" s="5"/>
-      <c r="AR47" s="5"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4"/>
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="4"/>
+      <c r="AO50" s="4"/>
+      <c r="AP50" s="4"/>
+      <c r="AQ50" s="4"/>
+      <c r="AR50" s="4"/>
     </row>
-    <row r="48" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>39</v>
+    <row r="51" spans="1:44" ht="19" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="6" t="s">
+        <v>25</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="9" t="s">
-        <v>8</v>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6" t="s">
+        <v>9</v>
       </c>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
-      <c r="AQ48" s="5"/>
-      <c r="AR48" s="5"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="4"/>
+      <c r="AP51" s="4"/>
+      <c r="AQ51" s="4"/>
+      <c r="AR51" s="4"/>
     </row>
-    <row r="49" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+    <row r="52" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="9" t="s">
-        <v>24</v>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="6" t="s">
+        <v>6</v>
       </c>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9" t="s">
-        <v>3</v>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6" t="s">
+        <v>28</v>
       </c>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
-      <c r="AC49" s="6"/>
-      <c r="AD49" s="6"/>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
-      <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
-      <c r="AO49" s="5"/>
-      <c r="AP49" s="5"/>
-      <c r="AQ49" s="5"/>
-      <c r="AR49" s="5"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="4"/>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
     </row>
-    <row r="50" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>26</v>
+    <row r="53" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>33</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="9" t="s">
-        <v>4</v>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="4"/>
+      <c r="AO53" s="4"/>
+      <c r="AP53" s="4"/>
+      <c r="AQ53" s="4"/>
+      <c r="AR53" s="4"/>
+    </row>
+    <row r="54" spans="1:44" ht="24" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="11" t="s">
+        <v>30</v>
       </c>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="6"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="5"/>
-      <c r="AH50" s="5"/>
-      <c r="AI50" s="5"/>
-      <c r="AJ50" s="5"/>
-      <c r="AK50" s="5"/>
-      <c r="AL50" s="5"/>
-      <c r="AM50" s="5"/>
-      <c r="AN50" s="5"/>
-      <c r="AO50" s="5"/>
-      <c r="AP50" s="5"/>
-      <c r="AQ50" s="5"/>
-      <c r="AR50" s="5"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="4"/>
+      <c r="AO54" s="4"/>
+      <c r="AP54" s="4"/>
+      <c r="AQ54" s="4"/>
+      <c r="AR54" s="4"/>
     </row>
-    <row r="51" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
-      <c r="AB51" s="6"/>
-      <c r="AC51" s="6"/>
-      <c r="AD51" s="6"/>
-      <c r="AE51" s="6"/>
-      <c r="AF51" s="6"/>
-      <c r="AG51" s="5"/>
-      <c r="AH51" s="5"/>
-      <c r="AI51" s="5"/>
-      <c r="AJ51" s="5"/>
-      <c r="AK51" s="5"/>
-      <c r="AL51" s="5"/>
-      <c r="AM51" s="5"/>
-      <c r="AN51" s="5"/>
-      <c r="AO51" s="5"/>
-      <c r="AP51" s="5"/>
-      <c r="AQ51" s="5"/>
-      <c r="AR51" s="5"/>
-    </row>
-    <row r="52" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+    <row r="55" spans="1:44" ht="19" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="6"/>
-      <c r="AE52" s="6"/>
-      <c r="AF52" s="6"/>
-      <c r="AG52" s="5"/>
-      <c r="AH52" s="5"/>
-      <c r="AI52" s="5"/>
-      <c r="AJ52" s="5"/>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="5"/>
-      <c r="AM52" s="5"/>
-      <c r="AN52" s="5"/>
-      <c r="AO52" s="5"/>
-      <c r="AP52" s="5"/>
-      <c r="AQ52" s="5"/>
-      <c r="AR52" s="5"/>
-    </row>
-    <row r="53" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="6"/>
-      <c r="AB53" s="6"/>
-      <c r="AC53" s="6"/>
-      <c r="AD53" s="6"/>
-      <c r="AE53" s="6"/>
-      <c r="AF53" s="6"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
-    </row>
-    <row r="54" spans="1:44" ht="24" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="6"/>
-      <c r="AB54" s="6"/>
-      <c r="AC54" s="6"/>
-      <c r="AD54" s="6"/>
-      <c r="AE54" s="6"/>
-      <c r="AF54" s="6"/>
-      <c r="AG54" s="5"/>
-      <c r="AH54" s="5"/>
-      <c r="AI54" s="5"/>
-      <c r="AJ54" s="5"/>
-      <c r="AK54" s="5"/>
-      <c r="AL54" s="5"/>
-      <c r="AM54" s="5"/>
-      <c r="AN54" s="5"/>
-      <c r="AO54" s="5"/>
-      <c r="AP54" s="5"/>
-      <c r="AQ54" s="5"/>
-      <c r="AR54" s="5"/>
-    </row>
-    <row r="55" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="5"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="4"/>
       <c r="M55" s="8" t="s">
         <v>10</v>
       </c>
@@ -11886,1503 +12065,1462 @@
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
-      <c r="AA55" s="6"/>
-      <c r="AB55" s="6"/>
-      <c r="AC55" s="6"/>
-      <c r="AD55" s="6"/>
-      <c r="AE55" s="6"/>
-      <c r="AF55" s="6"/>
-      <c r="AG55" s="5"/>
-      <c r="AH55" s="5"/>
-      <c r="AI55" s="5"/>
-      <c r="AJ55" s="5"/>
-      <c r="AK55" s="5"/>
-      <c r="AL55" s="5"/>
-      <c r="AM55" s="5"/>
-      <c r="AN55" s="5"/>
-      <c r="AO55" s="5"/>
-      <c r="AP55" s="5"/>
-      <c r="AQ55" s="5"/>
-      <c r="AR55" s="5"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="4"/>
+      <c r="AM55" s="4"/>
+      <c r="AN55" s="4"/>
+      <c r="AO55" s="4"/>
+      <c r="AP55" s="4"/>
+      <c r="AQ55" s="4"/>
+      <c r="AR55" s="4"/>
     </row>
     <row r="56" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="4"/>
+      <c r="AM56" s="4"/>
+      <c r="AN56" s="4"/>
+      <c r="AO56" s="4"/>
+      <c r="AP56" s="4"/>
+      <c r="AQ56" s="4"/>
+      <c r="AR56" s="4"/>
+    </row>
+    <row r="57" spans="1:44" ht="19" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="4"/>
+      <c r="AM57" s="4"/>
+      <c r="AN57" s="4"/>
+      <c r="AO57" s="4"/>
+      <c r="AP57" s="4"/>
+      <c r="AQ57" s="4"/>
+      <c r="AR57" s="4"/>
+    </row>
+    <row r="58" spans="1:44" ht="19" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="4"/>
+      <c r="AM58" s="4"/>
+      <c r="AN58" s="4"/>
+      <c r="AO58" s="4"/>
+      <c r="AP58" s="4"/>
+      <c r="AQ58" s="4"/>
+      <c r="AR58" s="4"/>
+    </row>
+    <row r="59" spans="1:44" ht="19" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
-      <c r="AA56" s="6"/>
-      <c r="AB56" s="6"/>
-      <c r="AC56" s="6"/>
-      <c r="AD56" s="6"/>
-      <c r="AE56" s="6"/>
-      <c r="AF56" s="6"/>
-      <c r="AG56" s="5"/>
-      <c r="AH56" s="5"/>
-      <c r="AI56" s="5"/>
-      <c r="AJ56" s="5"/>
-      <c r="AK56" s="5"/>
-      <c r="AL56" s="5"/>
-      <c r="AM56" s="5"/>
-      <c r="AN56" s="5"/>
-      <c r="AO56" s="5"/>
-      <c r="AP56" s="5"/>
-      <c r="AQ56" s="5"/>
-      <c r="AR56" s="5"/>
-    </row>
-    <row r="57" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z57" s="6"/>
-      <c r="AA57" s="6"/>
-      <c r="AB57" s="6"/>
-      <c r="AC57" s="6"/>
-      <c r="AD57" s="6"/>
-      <c r="AE57" s="6"/>
-      <c r="AF57" s="6"/>
-      <c r="AG57" s="5"/>
-      <c r="AH57" s="5"/>
-      <c r="AI57" s="5"/>
-      <c r="AJ57" s="5"/>
-      <c r="AK57" s="5"/>
-      <c r="AL57" s="5"/>
-      <c r="AM57" s="5"/>
-      <c r="AN57" s="5"/>
-      <c r="AO57" s="5"/>
-      <c r="AP57" s="5"/>
-      <c r="AQ57" s="5"/>
-      <c r="AR57" s="5"/>
-    </row>
-    <row r="58" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="5"/>
-      <c r="AH58" s="5"/>
-      <c r="AI58" s="5"/>
-      <c r="AJ58" s="5"/>
-      <c r="AK58" s="5"/>
-      <c r="AL58" s="5"/>
-      <c r="AM58" s="5"/>
-      <c r="AN58" s="5"/>
-      <c r="AO58" s="5"/>
-      <c r="AP58" s="5"/>
-      <c r="AQ58" s="5"/>
-      <c r="AR58" s="5"/>
-    </row>
-    <row r="59" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
-      <c r="AB59" s="9"/>
-      <c r="AC59" s="9"/>
-      <c r="AD59" s="9"/>
-      <c r="AE59" s="9"/>
-      <c r="AF59" s="9"/>
-      <c r="AG59" s="5"/>
-      <c r="AH59" s="5"/>
-      <c r="AI59" s="5"/>
-      <c r="AJ59" s="5"/>
-      <c r="AK59" s="5"/>
-      <c r="AL59" s="5"/>
-      <c r="AM59" s="5"/>
-      <c r="AN59" s="5"/>
-      <c r="AO59" s="5"/>
-      <c r="AP59" s="5"/>
-      <c r="AQ59" s="5"/>
-      <c r="AR59" s="5"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="4"/>
+      <c r="AH59" s="4"/>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="4"/>
+      <c r="AL59" s="4"/>
+      <c r="AM59" s="4"/>
+      <c r="AN59" s="4"/>
+      <c r="AO59" s="4"/>
+      <c r="AP59" s="4"/>
+      <c r="AQ59" s="4"/>
+      <c r="AR59" s="4"/>
     </row>
     <row r="60" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="9" t="s">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9" t="s">
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5"/>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="5"/>
-      <c r="AH60" s="5"/>
-      <c r="AI60" s="5"/>
-      <c r="AJ60" s="5"/>
-      <c r="AK60" s="5"/>
-      <c r="AL60" s="5"/>
-      <c r="AM60" s="5"/>
-      <c r="AN60" s="5"/>
-      <c r="AO60" s="5"/>
-      <c r="AP60" s="5"/>
-      <c r="AQ60" s="5"/>
-      <c r="AR60" s="5"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="4"/>
+      <c r="AI60" s="4"/>
+      <c r="AJ60" s="4"/>
+      <c r="AK60" s="4"/>
+      <c r="AL60" s="4"/>
+      <c r="AM60" s="4"/>
+      <c r="AN60" s="4"/>
+      <c r="AO60" s="4"/>
+      <c r="AP60" s="4"/>
+      <c r="AQ60" s="4"/>
+      <c r="AR60" s="4"/>
     </row>
     <row r="61" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="9" t="s">
+      <c r="A61" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9" t="s">
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="5"/>
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="5"/>
-      <c r="AE61" s="5"/>
-      <c r="AF61" s="5"/>
-      <c r="AG61" s="5"/>
-      <c r="AH61" s="5"/>
-      <c r="AI61" s="5"/>
-      <c r="AJ61" s="5"/>
-      <c r="AK61" s="5"/>
-      <c r="AL61" s="5"/>
-      <c r="AM61" s="5"/>
-      <c r="AN61" s="5"/>
-      <c r="AO61" s="5"/>
-      <c r="AP61" s="5"/>
-      <c r="AQ61" s="5"/>
-      <c r="AR61" s="5"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="4"/>
+      <c r="AH61" s="4"/>
+      <c r="AI61" s="4"/>
+      <c r="AJ61" s="4"/>
+      <c r="AK61" s="4"/>
+      <c r="AL61" s="4"/>
+      <c r="AM61" s="4"/>
+      <c r="AN61" s="4"/>
+      <c r="AO61" s="4"/>
+      <c r="AP61" s="4"/>
+      <c r="AQ61" s="4"/>
+      <c r="AR61" s="4"/>
     </row>
-    <row r="62" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="9" t="s">
+    <row r="62" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9" t="s">
-        <v>28</v>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6" t="s">
+        <v>27</v>
       </c>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5"/>
-      <c r="AF62" s="5"/>
-      <c r="AG62" s="5"/>
-      <c r="AH62" s="5"/>
-      <c r="AI62" s="5"/>
-      <c r="AJ62" s="5"/>
-      <c r="AK62" s="5"/>
-      <c r="AL62" s="5"/>
-      <c r="AM62" s="5"/>
-      <c r="AN62" s="5"/>
-      <c r="AO62" s="5"/>
-      <c r="AP62" s="5"/>
-      <c r="AQ62" s="5"/>
-      <c r="AR62" s="5"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="4"/>
+      <c r="AH62" s="4"/>
+      <c r="AI62" s="4"/>
+      <c r="AJ62" s="4"/>
+      <c r="AK62" s="4"/>
+      <c r="AL62" s="4"/>
+      <c r="AM62" s="4"/>
+      <c r="AN62" s="4"/>
+      <c r="AO62" s="4"/>
+      <c r="AP62" s="4"/>
+      <c r="AQ62" s="4"/>
+      <c r="AR62" s="4"/>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-      <c r="AA63" s="5"/>
-      <c r="AB63" s="5"/>
-      <c r="AC63" s="5"/>
-      <c r="AD63" s="5"/>
-      <c r="AE63" s="5"/>
-      <c r="AF63" s="5"/>
-      <c r="AG63" s="5"/>
-      <c r="AH63" s="5"/>
-      <c r="AI63" s="5"/>
-      <c r="AJ63" s="5"/>
-      <c r="AK63" s="5"/>
-      <c r="AL63" s="5"/>
-      <c r="AM63" s="5"/>
-      <c r="AN63" s="5"/>
-      <c r="AO63" s="5"/>
-      <c r="AP63" s="5"/>
-      <c r="AQ63" s="5"/>
-      <c r="AR63" s="5"/>
+    <row r="63" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="4"/>
+      <c r="AI63" s="4"/>
+      <c r="AJ63" s="4"/>
+      <c r="AK63" s="4"/>
+      <c r="AL63" s="4"/>
+      <c r="AM63" s="4"/>
+      <c r="AN63" s="4"/>
+      <c r="AO63" s="4"/>
+      <c r="AP63" s="4"/>
+      <c r="AQ63" s="4"/>
+      <c r="AR63" s="4"/>
     </row>
     <row r="64" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5"/>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="5"/>
-      <c r="AH64" s="5"/>
-      <c r="AI64" s="5"/>
-      <c r="AJ64" s="5"/>
-      <c r="AK64" s="5"/>
-      <c r="AL64" s="5"/>
-      <c r="AM64" s="5"/>
-      <c r="AN64" s="5"/>
-      <c r="AO64" s="5"/>
-      <c r="AP64" s="5"/>
-      <c r="AQ64" s="5"/>
-      <c r="AR64" s="5"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="4"/>
+      <c r="AJ64" s="4"/>
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="4"/>
+      <c r="AM64" s="4"/>
+      <c r="AN64" s="4"/>
+      <c r="AO64" s="4"/>
+      <c r="AP64" s="4"/>
+      <c r="AQ64" s="4"/>
+      <c r="AR64" s="4"/>
     </row>
     <row r="65" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
-      <c r="AB65" s="5"/>
-      <c r="AC65" s="5"/>
-      <c r="AD65" s="5"/>
-      <c r="AE65" s="5"/>
-      <c r="AF65" s="5"/>
-      <c r="AG65" s="5"/>
-      <c r="AH65" s="5"/>
-      <c r="AI65" s="5"/>
-      <c r="AJ65" s="5"/>
-      <c r="AK65" s="5"/>
-      <c r="AL65" s="5"/>
-      <c r="AM65" s="5"/>
-      <c r="AN65" s="5"/>
-      <c r="AO65" s="5"/>
-      <c r="AP65" s="5"/>
-      <c r="AQ65" s="5"/>
-      <c r="AR65" s="5"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4"/>
+      <c r="AF65" s="4"/>
+      <c r="AG65" s="4"/>
+      <c r="AH65" s="4"/>
+      <c r="AI65" s="4"/>
+      <c r="AJ65" s="4"/>
+      <c r="AK65" s="4"/>
+      <c r="AL65" s="4"/>
+      <c r="AM65" s="4"/>
+      <c r="AN65" s="4"/>
+      <c r="AO65" s="4"/>
+      <c r="AP65" s="4"/>
+      <c r="AQ65" s="4"/>
+      <c r="AR65" s="4"/>
     </row>
     <row r="66" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="5"/>
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="5"/>
-      <c r="AF66" s="5"/>
-      <c r="AG66" s="5"/>
-      <c r="AH66" s="5"/>
-      <c r="AI66" s="5"/>
-      <c r="AJ66" s="5"/>
-      <c r="AK66" s="5"/>
-      <c r="AL66" s="5"/>
-      <c r="AM66" s="5"/>
-      <c r="AN66" s="5"/>
-      <c r="AO66" s="5"/>
-      <c r="AP66" s="5"/>
-      <c r="AQ66" s="5"/>
-      <c r="AR66" s="5"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="4"/>
+      <c r="AG66" s="4"/>
+      <c r="AH66" s="4"/>
+      <c r="AI66" s="4"/>
+      <c r="AJ66" s="4"/>
+      <c r="AK66" s="4"/>
+      <c r="AL66" s="4"/>
+      <c r="AM66" s="4"/>
+      <c r="AN66" s="4"/>
+      <c r="AO66" s="4"/>
+      <c r="AP66" s="4"/>
+      <c r="AQ66" s="4"/>
+      <c r="AR66" s="4"/>
     </row>
     <row r="67" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
-      <c r="AB67" s="5"/>
-      <c r="AC67" s="5"/>
-      <c r="AD67" s="5"/>
-      <c r="AE67" s="5"/>
-      <c r="AF67" s="5"/>
-      <c r="AG67" s="5"/>
-      <c r="AH67" s="5"/>
-      <c r="AI67" s="5"/>
-      <c r="AJ67" s="5"/>
-      <c r="AK67" s="5"/>
-      <c r="AL67" s="5"/>
-      <c r="AM67" s="5"/>
-      <c r="AN67" s="5"/>
-      <c r="AO67" s="5"/>
-      <c r="AP67" s="5"/>
-      <c r="AQ67" s="5"/>
-      <c r="AR67" s="5"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="4"/>
+      <c r="AG67" s="4"/>
+      <c r="AH67" s="4"/>
+      <c r="AI67" s="4"/>
+      <c r="AJ67" s="4"/>
+      <c r="AK67" s="4"/>
+      <c r="AL67" s="4"/>
+      <c r="AM67" s="4"/>
+      <c r="AN67" s="4"/>
+      <c r="AO67" s="4"/>
+      <c r="AP67" s="4"/>
+      <c r="AQ67" s="4"/>
+      <c r="AR67" s="4"/>
     </row>
     <row r="68" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="5"/>
-      <c r="AB68" s="5"/>
-      <c r="AC68" s="5"/>
-      <c r="AD68" s="5"/>
-      <c r="AE68" s="5"/>
-      <c r="AF68" s="5"/>
-      <c r="AG68" s="5"/>
-      <c r="AH68" s="5"/>
-      <c r="AI68" s="5"/>
-      <c r="AJ68" s="5"/>
-      <c r="AK68" s="5"/>
-      <c r="AL68" s="5"/>
-      <c r="AM68" s="5"/>
-      <c r="AN68" s="5"/>
-      <c r="AO68" s="5"/>
-      <c r="AP68" s="5"/>
-      <c r="AQ68" s="5"/>
-      <c r="AR68" s="5"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="4"/>
+      <c r="AG68" s="4"/>
+      <c r="AH68" s="4"/>
+      <c r="AI68" s="4"/>
+      <c r="AJ68" s="4"/>
+      <c r="AK68" s="4"/>
+      <c r="AL68" s="4"/>
+      <c r="AM68" s="4"/>
+      <c r="AN68" s="4"/>
+      <c r="AO68" s="4"/>
+      <c r="AP68" s="4"/>
+      <c r="AQ68" s="4"/>
+      <c r="AR68" s="4"/>
     </row>
     <row r="69" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="5"/>
-      <c r="AB69" s="5"/>
-      <c r="AC69" s="5"/>
-      <c r="AD69" s="5"/>
-      <c r="AE69" s="5"/>
-      <c r="AF69" s="5"/>
-      <c r="AG69" s="5"/>
-      <c r="AH69" s="5"/>
-      <c r="AI69" s="5"/>
-      <c r="AJ69" s="5"/>
-      <c r="AK69" s="5"/>
-      <c r="AL69" s="5"/>
-      <c r="AM69" s="5"/>
-      <c r="AN69" s="5"/>
-      <c r="AO69" s="5"/>
-      <c r="AP69" s="5"/>
-      <c r="AQ69" s="5"/>
-      <c r="AR69" s="5"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="4"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="4"/>
+      <c r="AG69" s="4"/>
+      <c r="AH69" s="4"/>
+      <c r="AI69" s="4"/>
+      <c r="AJ69" s="4"/>
+      <c r="AK69" s="4"/>
+      <c r="AL69" s="4"/>
+      <c r="AM69" s="4"/>
+      <c r="AN69" s="4"/>
+      <c r="AO69" s="4"/>
+      <c r="AP69" s="4"/>
+      <c r="AQ69" s="4"/>
+      <c r="AR69" s="4"/>
     </row>
     <row r="70" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="15" t="s">
-        <v>27</v>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="18" t="s">
+        <v>54</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="5"/>
-      <c r="AB70" s="5"/>
-      <c r="AC70" s="5"/>
-      <c r="AD70" s="5"/>
-      <c r="AE70" s="5"/>
-      <c r="AF70" s="5"/>
-      <c r="AG70" s="5"/>
-      <c r="AH70" s="5"/>
-      <c r="AI70" s="5"/>
-      <c r="AJ70" s="5"/>
-      <c r="AK70" s="5"/>
-      <c r="AL70" s="5"/>
-      <c r="AM70" s="5"/>
-      <c r="AN70" s="5"/>
-      <c r="AO70" s="5"/>
-      <c r="AP70" s="5"/>
-      <c r="AQ70" s="5"/>
-      <c r="AR70" s="5"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
+      <c r="AG70" s="4"/>
+      <c r="AH70" s="4"/>
+      <c r="AI70" s="4"/>
+      <c r="AJ70" s="4"/>
+      <c r="AK70" s="4"/>
+      <c r="AL70" s="4"/>
+      <c r="AM70" s="4"/>
+      <c r="AN70" s="4"/>
+      <c r="AO70" s="4"/>
+      <c r="AP70" s="4"/>
+      <c r="AQ70" s="4"/>
+      <c r="AR70" s="4"/>
     </row>
     <row r="71" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="5"/>
-      <c r="AB71" s="5"/>
-      <c r="AC71" s="5"/>
-      <c r="AD71" s="5"/>
-      <c r="AE71" s="5"/>
-      <c r="AF71" s="5"/>
-      <c r="AG71" s="5"/>
-      <c r="AH71" s="5"/>
-      <c r="AI71" s="5"/>
-      <c r="AJ71" s="5"/>
-      <c r="AK71" s="5"/>
-      <c r="AL71" s="5"/>
-      <c r="AM71" s="5"/>
-      <c r="AN71" s="5"/>
-      <c r="AO71" s="5"/>
-      <c r="AP71" s="5"/>
-      <c r="AQ71" s="5"/>
-      <c r="AR71" s="5"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="4"/>
+      <c r="AE71" s="4"/>
+      <c r="AF71" s="4"/>
+      <c r="AG71" s="4"/>
+      <c r="AH71" s="4"/>
+      <c r="AI71" s="4"/>
+      <c r="AJ71" s="4"/>
+      <c r="AK71" s="4"/>
+      <c r="AL71" s="4"/>
+      <c r="AM71" s="4"/>
+      <c r="AN71" s="4"/>
+      <c r="AO71" s="4"/>
+      <c r="AP71" s="4"/>
+      <c r="AQ71" s="4"/>
+      <c r="AR71" s="4"/>
     </row>
     <row r="72" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="5"/>
-      <c r="AC72" s="5"/>
-      <c r="AD72" s="5"/>
-      <c r="AE72" s="5"/>
-      <c r="AF72" s="5"/>
-      <c r="AG72" s="5"/>
-      <c r="AH72" s="5"/>
-      <c r="AI72" s="5"/>
-      <c r="AJ72" s="5"/>
-      <c r="AK72" s="5"/>
-      <c r="AL72" s="5"/>
-      <c r="AM72" s="5"/>
-      <c r="AN72" s="5"/>
-      <c r="AO72" s="5"/>
-      <c r="AP72" s="5"/>
-      <c r="AQ72" s="5"/>
-      <c r="AR72" s="5"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4"/>
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="4"/>
+      <c r="AG72" s="4"/>
+      <c r="AH72" s="4"/>
+      <c r="AI72" s="4"/>
+      <c r="AJ72" s="4"/>
+      <c r="AK72" s="4"/>
+      <c r="AL72" s="4"/>
+      <c r="AM72" s="4"/>
+      <c r="AN72" s="4"/>
+      <c r="AO72" s="4"/>
+      <c r="AP72" s="4"/>
+      <c r="AQ72" s="4"/>
+      <c r="AR72" s="4"/>
     </row>
     <row r="73" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="5"/>
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="5"/>
-      <c r="AE73" s="5"/>
-      <c r="AF73" s="5"/>
-      <c r="AG73" s="5"/>
-      <c r="AH73" s="5"/>
-      <c r="AI73" s="5"/>
-      <c r="AJ73" s="5"/>
-      <c r="AK73" s="5"/>
-      <c r="AL73" s="5"/>
-      <c r="AM73" s="5"/>
-      <c r="AN73" s="5"/>
-      <c r="AO73" s="5"/>
-      <c r="AP73" s="5"/>
-      <c r="AQ73" s="5"/>
-      <c r="AR73" s="5"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="4"/>
+      <c r="AG73" s="4"/>
+      <c r="AH73" s="4"/>
+      <c r="AI73" s="4"/>
+      <c r="AJ73" s="4"/>
+      <c r="AK73" s="4"/>
+      <c r="AL73" s="4"/>
+      <c r="AM73" s="4"/>
+      <c r="AN73" s="4"/>
+      <c r="AO73" s="4"/>
+      <c r="AP73" s="4"/>
+      <c r="AQ73" s="4"/>
+      <c r="AR73" s="4"/>
     </row>
     <row r="74" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
-      <c r="W74" s="5"/>
-      <c r="X74" s="5"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="5"/>
-      <c r="AB74" s="5"/>
-      <c r="AC74" s="5"/>
-      <c r="AD74" s="5"/>
-      <c r="AE74" s="5"/>
-      <c r="AF74" s="5"/>
-      <c r="AG74" s="5"/>
-      <c r="AH74" s="5"/>
-      <c r="AI74" s="5"/>
-      <c r="AJ74" s="5"/>
-      <c r="AK74" s="5"/>
-      <c r="AL74" s="5"/>
-      <c r="AM74" s="5"/>
-      <c r="AN74" s="5"/>
-      <c r="AO74" s="5"/>
-      <c r="AP74" s="5"/>
-      <c r="AQ74" s="5"/>
-      <c r="AR74" s="5"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="4"/>
+      <c r="AE74" s="4"/>
+      <c r="AF74" s="4"/>
+      <c r="AG74" s="4"/>
+      <c r="AH74" s="4"/>
+      <c r="AI74" s="4"/>
+      <c r="AJ74" s="4"/>
+      <c r="AK74" s="4"/>
+      <c r="AL74" s="4"/>
+      <c r="AM74" s="4"/>
+      <c r="AN74" s="4"/>
+      <c r="AO74" s="4"/>
+      <c r="AP74" s="4"/>
+      <c r="AQ74" s="4"/>
+      <c r="AR74" s="4"/>
     </row>
     <row r="75" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="5"/>
-      <c r="AC75" s="5"/>
-      <c r="AD75" s="5"/>
-      <c r="AE75" s="5"/>
-      <c r="AF75" s="5"/>
-      <c r="AG75" s="5"/>
-      <c r="AH75" s="5"/>
-      <c r="AI75" s="5"/>
-      <c r="AJ75" s="5"/>
-      <c r="AK75" s="5"/>
-      <c r="AL75" s="5"/>
-      <c r="AM75" s="5"/>
-      <c r="AN75" s="5"/>
-      <c r="AO75" s="5"/>
-      <c r="AP75" s="5"/>
-      <c r="AQ75" s="5"/>
-      <c r="AR75" s="5"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4"/>
+      <c r="AE75" s="4"/>
+      <c r="AF75" s="4"/>
+      <c r="AG75" s="4"/>
+      <c r="AH75" s="4"/>
+      <c r="AI75" s="4"/>
+      <c r="AJ75" s="4"/>
+      <c r="AK75" s="4"/>
+      <c r="AL75" s="4"/>
+      <c r="AM75" s="4"/>
+      <c r="AN75" s="4"/>
+      <c r="AO75" s="4"/>
+      <c r="AP75" s="4"/>
+      <c r="AQ75" s="4"/>
+      <c r="AR75" s="4"/>
     </row>
     <row r="76" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="5"/>
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="5"/>
-      <c r="AF76" s="5"/>
-      <c r="AG76" s="5"/>
-      <c r="AH76" s="5"/>
-      <c r="AI76" s="5"/>
-      <c r="AJ76" s="5"/>
-      <c r="AK76" s="5"/>
-      <c r="AL76" s="5"/>
-      <c r="AM76" s="5"/>
-      <c r="AN76" s="5"/>
-      <c r="AO76" s="5"/>
-      <c r="AP76" s="5"/>
-      <c r="AQ76" s="5"/>
-      <c r="AR76" s="5"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="4"/>
+      <c r="AO76" s="4"/>
+      <c r="AP76" s="4"/>
+      <c r="AQ76" s="4"/>
+      <c r="AR76" s="4"/>
     </row>
     <row r="77" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="5"/>
-      <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="5"/>
-      <c r="AF77" s="5"/>
-      <c r="AG77" s="5"/>
-      <c r="AH77" s="5"/>
-      <c r="AI77" s="5"/>
-      <c r="AJ77" s="5"/>
-      <c r="AK77" s="5"/>
-      <c r="AL77" s="5"/>
-      <c r="AM77" s="5"/>
-      <c r="AN77" s="5"/>
-      <c r="AO77" s="5"/>
-      <c r="AP77" s="5"/>
-      <c r="AQ77" s="5"/>
-      <c r="AR77" s="5"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="4"/>
+      <c r="AN77" s="4"/>
+      <c r="AO77" s="4"/>
+      <c r="AP77" s="4"/>
+      <c r="AQ77" s="4"/>
+      <c r="AR77" s="4"/>
     </row>
     <row r="78" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="5"/>
-      <c r="AC78" s="5"/>
-      <c r="AD78" s="5"/>
-      <c r="AE78" s="5"/>
-      <c r="AF78" s="5"/>
-      <c r="AG78" s="5"/>
-      <c r="AH78" s="5"/>
-      <c r="AI78" s="5"/>
-      <c r="AJ78" s="5"/>
-      <c r="AK78" s="5"/>
-      <c r="AL78" s="5"/>
-      <c r="AM78" s="5"/>
-      <c r="AN78" s="5"/>
-      <c r="AO78" s="5"/>
-      <c r="AP78" s="5"/>
-      <c r="AQ78" s="5"/>
-      <c r="AR78" s="5"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="4"/>
+      <c r="AG78" s="4"/>
+      <c r="AH78" s="4"/>
+      <c r="AI78" s="4"/>
+      <c r="AJ78" s="4"/>
+      <c r="AK78" s="4"/>
+      <c r="AL78" s="4"/>
+      <c r="AM78" s="4"/>
+      <c r="AN78" s="4"/>
+      <c r="AO78" s="4"/>
+      <c r="AP78" s="4"/>
+      <c r="AQ78" s="4"/>
+      <c r="AR78" s="4"/>
     </row>
     <row r="79" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="5"/>
-      <c r="AC79" s="5"/>
-      <c r="AD79" s="5"/>
-      <c r="AE79" s="5"/>
-      <c r="AF79" s="5"/>
-      <c r="AG79" s="5"/>
-      <c r="AH79" s="5"/>
-      <c r="AI79" s="5"/>
-      <c r="AJ79" s="5"/>
-      <c r="AK79" s="5"/>
-      <c r="AL79" s="5"/>
-      <c r="AM79" s="5"/>
-      <c r="AN79" s="5"/>
-      <c r="AO79" s="5"/>
-      <c r="AP79" s="5"/>
-      <c r="AQ79" s="5"/>
-      <c r="AR79" s="5"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+      <c r="AD79" s="4"/>
+      <c r="AE79" s="4"/>
+      <c r="AF79" s="4"/>
+      <c r="AG79" s="4"/>
+      <c r="AH79" s="4"/>
+      <c r="AI79" s="4"/>
+      <c r="AJ79" s="4"/>
+      <c r="AK79" s="4"/>
+      <c r="AL79" s="4"/>
+      <c r="AM79" s="4"/>
+      <c r="AN79" s="4"/>
+      <c r="AO79" s="4"/>
+      <c r="AP79" s="4"/>
+      <c r="AQ79" s="4"/>
+      <c r="AR79" s="4"/>
     </row>
     <row r="80" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="5"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5"/>
-      <c r="AC80" s="5"/>
-      <c r="AD80" s="5"/>
-      <c r="AE80" s="5"/>
-      <c r="AF80" s="5"/>
-      <c r="AG80" s="5"/>
-      <c r="AH80" s="5"/>
-      <c r="AI80" s="5"/>
-      <c r="AJ80" s="5"/>
-      <c r="AK80" s="5"/>
-      <c r="AL80" s="5"/>
-      <c r="AM80" s="5"/>
-      <c r="AN80" s="5"/>
-      <c r="AO80" s="5"/>
-      <c r="AP80" s="5"/>
-      <c r="AQ80" s="5"/>
-      <c r="AR80" s="5"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+      <c r="AD80" s="4"/>
+      <c r="AE80" s="4"/>
+      <c r="AF80" s="4"/>
+      <c r="AG80" s="4"/>
+      <c r="AH80" s="4"/>
+      <c r="AI80" s="4"/>
+      <c r="AJ80" s="4"/>
+      <c r="AK80" s="4"/>
+      <c r="AL80" s="4"/>
+      <c r="AM80" s="4"/>
+      <c r="AN80" s="4"/>
+      <c r="AO80" s="4"/>
+      <c r="AP80" s="4"/>
+      <c r="AQ80" s="4"/>
+      <c r="AR80" s="4"/>
     </row>
     <row r="81" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="5"/>
-      <c r="AC81" s="5"/>
-      <c r="AD81" s="5"/>
-      <c r="AE81" s="5"/>
-      <c r="AF81" s="5"/>
-      <c r="AG81" s="5"/>
-      <c r="AH81" s="5"/>
-      <c r="AI81" s="5"/>
-      <c r="AJ81" s="5"/>
-      <c r="AK81" s="5"/>
-      <c r="AL81" s="5"/>
-      <c r="AM81" s="5"/>
-      <c r="AN81" s="5"/>
-      <c r="AO81" s="5"/>
-      <c r="AP81" s="5"/>
-      <c r="AQ81" s="5"/>
-      <c r="AR81" s="5"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+      <c r="AD81" s="4"/>
+      <c r="AE81" s="4"/>
+      <c r="AF81" s="4"/>
+      <c r="AG81" s="4"/>
+      <c r="AH81" s="4"/>
+      <c r="AI81" s="4"/>
+      <c r="AJ81" s="4"/>
+      <c r="AK81" s="4"/>
+      <c r="AL81" s="4"/>
+      <c r="AM81" s="4"/>
+      <c r="AN81" s="4"/>
+      <c r="AO81" s="4"/>
+      <c r="AP81" s="4"/>
+      <c r="AQ81" s="4"/>
+      <c r="AR81" s="4"/>
     </row>
-    <row r="82" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5"/>
-      <c r="AF82" s="5"/>
-      <c r="AG82" s="5"/>
-      <c r="AH82" s="5"/>
-      <c r="AI82" s="5"/>
-      <c r="AJ82" s="5"/>
-      <c r="AK82" s="5"/>
-      <c r="AL82" s="5"/>
-      <c r="AM82" s="5"/>
-      <c r="AN82" s="5"/>
-      <c r="AO82" s="5"/>
-      <c r="AP82" s="5"/>
-      <c r="AQ82" s="5"/>
-      <c r="AR82" s="5"/>
+    <row r="82" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AD82" s="4"/>
+      <c r="AE82" s="4"/>
+      <c r="AF82" s="4"/>
+      <c r="AG82" s="4"/>
+      <c r="AH82" s="4"/>
+      <c r="AI82" s="4"/>
+      <c r="AJ82" s="4"/>
+      <c r="AK82" s="4"/>
+      <c r="AL82" s="4"/>
+      <c r="AM82" s="4"/>
+      <c r="AN82" s="4"/>
+      <c r="AO82" s="4"/>
+      <c r="AP82" s="4"/>
+      <c r="AQ82" s="4"/>
+      <c r="AR82" s="4"/>
     </row>
     <row r="83" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5"/>
-      <c r="AF83" s="5"/>
-      <c r="AG83" s="5"/>
-      <c r="AH83" s="5"/>
-      <c r="AI83" s="5"/>
-      <c r="AJ83" s="5"/>
-      <c r="AK83" s="5"/>
-      <c r="AL83" s="5"/>
-      <c r="AM83" s="5"/>
-      <c r="AN83" s="5"/>
-      <c r="AO83" s="5"/>
-      <c r="AP83" s="5"/>
-      <c r="AQ83" s="5"/>
-      <c r="AR83" s="5"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
-      <c r="AE84" s="5"/>
-      <c r="AF84" s="5"/>
-      <c r="AG84" s="5"/>
-      <c r="AH84" s="5"/>
-      <c r="AI84" s="5"/>
-      <c r="AJ84" s="5"/>
-      <c r="AK84" s="5"/>
-      <c r="AL84" s="5"/>
-      <c r="AM84" s="5"/>
-      <c r="AN84" s="5"/>
-      <c r="AO84" s="5"/>
-      <c r="AP84" s="5"/>
-      <c r="AQ84" s="5"/>
-      <c r="AR84" s="5"/>
+      <c r="A84" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
-      <c r="AB85" s="5"/>
-      <c r="AC85" s="5"/>
-      <c r="AD85" s="5"/>
-      <c r="AE85" s="5"/>
-      <c r="AF85" s="5"/>
-      <c r="AG85" s="5"/>
-      <c r="AH85" s="5"/>
-      <c r="AI85" s="5"/>
-      <c r="AJ85" s="5"/>
-      <c r="AK85" s="5"/>
-      <c r="AL85" s="5"/>
-      <c r="AM85" s="5"/>
-      <c r="AN85" s="5"/>
-      <c r="AO85" s="5"/>
-      <c r="AP85" s="5"/>
-      <c r="AQ85" s="5"/>
-      <c r="AR85" s="5"/>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A85" s="15" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="86" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
+    <row r="86" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="87" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
+    <row r="87" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A87" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="E99" s="16"/>
+      <c r="L99" s="16"/>
+    </row>
+    <row r="100" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="E100" s="16"/>
+      <c r="L100" s="16"/>
+    </row>
+    <row r="101" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="E101" s="16"/>
+      <c r="L101" s="16"/>
+    </row>
+    <row r="102" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="E102" s="16"/>
+      <c r="L102" s="16"/>
+    </row>
+    <row r="103" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="E103" s="16"/>
+      <c r="L103" s="16"/>
+    </row>
+    <row r="104" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="E104" s="16"/>
+      <c r="L104" s="16"/>
+    </row>
+    <row r="105" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="E105" s="16"/>
+    </row>
+    <row r="106" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="E106" s="16"/>
+    </row>
+    <row r="107" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="E107" s="16"/>
+    </row>
+    <row r="108" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="E108" s="16"/>
+    </row>
+    <row r="109" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="E109" s="16"/>
+    </row>
+    <row r="110" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="E110" s="16"/>
+    </row>
+    <row r="111" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="E111" s="16"/>
+    </row>
+    <row r="112" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="E112" s="16"/>
+    </row>
+    <row r="113" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E113" s="16"/>
+    </row>
+    <row r="114" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E114" s="16"/>
+    </row>
+    <row r="115" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E115" s="16"/>
+    </row>
+    <row r="119" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E119" s="16"/>
+    </row>
+    <row r="120" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E120" s="16"/>
+    </row>
+    <row r="121" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E121" s="16"/>
+    </row>
+    <row r="122" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E122" s="16"/>
+    </row>
+    <row r="123" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E123" s="16"/>
+    </row>
+    <row r="124" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E124" s="16"/>
+    </row>
+    <row r="125" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E125" s="16"/>
+    </row>
+    <row r="126" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E126" s="16"/>
+    </row>
+    <row r="127" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E127" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="45">
-    <mergeCell ref="Y59:AF59"/>
-    <mergeCell ref="Y50:AF51"/>
-    <mergeCell ref="Y52:AF56"/>
-    <mergeCell ref="Y57:AF58"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="Q47:W47"/>
-    <mergeCell ref="M46:W46"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="Y46:AF46"/>
-    <mergeCell ref="Y47:AF49"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="Q51:W51"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="Q48:W48"/>
-    <mergeCell ref="Q49:W49"/>
-    <mergeCell ref="Q50:W50"/>
-    <mergeCell ref="M54:U54"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:U55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:U56"/>
-    <mergeCell ref="P57:U57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:U58"/>
-    <mergeCell ref="M59:O59"/>
+  <mergeCells count="50">
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="A63:F82"/>
+    <mergeCell ref="G63:K69"/>
+    <mergeCell ref="G70:K82"/>
     <mergeCell ref="P59:U59"/>
     <mergeCell ref="M62:O62"/>
     <mergeCell ref="P62:U62"/>
@@ -13399,7 +13537,34 @@
     <mergeCell ref="P60:U60"/>
     <mergeCell ref="M61:O61"/>
     <mergeCell ref="P61:U61"/>
-    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M46:W46"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="Y46:AF46"/>
+    <mergeCell ref="Y47:AF49"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="Q51:W51"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="Q48:W48"/>
+    <mergeCell ref="Q49:W49"/>
+    <mergeCell ref="Q50:W50"/>
+    <mergeCell ref="Y59:AF59"/>
+    <mergeCell ref="Y50:AF51"/>
+    <mergeCell ref="Y52:AF56"/>
+    <mergeCell ref="Y57:AF58"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="Q47:W47"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M54:U54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:U55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:U56"/>
+    <mergeCell ref="P57:U57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:U58"/>
+    <mergeCell ref="M59:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/misc/src/main/resources/relayr/RSystemDesign.xlsx
+++ b/misc/src/main/resources/relayr/RSystemDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/misc/src/main/resources/relayr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6D8DFA-EE7D-984F-BA65-6B5A6F68BE60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5542E45D-07C3-2442-8B9C-1F82F6731CAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1240" windowWidth="35840" windowHeight="21140" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
+    <workbookView xWindow="0" yWindow="2620" windowWidth="35840" windowHeight="21140" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="RSystemDesign" sheetId="1" r:id="rId1"/>
@@ -609,36 +609,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,6 +649,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9497,25 +9497,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418F5B1-9DD0-8349-B469-8AF4836345C2}">
   <dimension ref="A1:AR127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="2"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -9552,16 +9552,16 @@
       <c r="AR1" s="4"/>
     </row>
     <row r="2" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11576,44 +11576,44 @@
       <c r="AR45" s="4"/>
     </row>
     <row r="46" spans="1:44" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="9" t="s">
+      <c r="M46" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
       <c r="X46" s="4"/>
-      <c r="Y46" s="9" t="s">
+      <c r="Y46" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
       <c r="AG46" s="4"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
@@ -11628,44 +11628,44 @@
       <c r="AR46" s="4"/>
     </row>
     <row r="47" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="8" t="s">
+      <c r="M47" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8" t="s">
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
       <c r="X47" s="4"/>
-      <c r="Y47" s="7" t="s">
+      <c r="Y47" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="7"/>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
       <c r="AG47" s="4"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
@@ -11680,44 +11680,44 @@
       <c r="AR47" s="4"/>
     </row>
     <row r="48" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="6" t="s">
+      <c r="M48" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6" t="s">
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
       <c r="X48" s="4"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7"/>
-      <c r="AC48" s="7"/>
-      <c r="AD48" s="7"/>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="7"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
       <c r="AG48" s="4"/>
       <c r="AH48" s="4"/>
       <c r="AI48" s="4"/>
@@ -11732,44 +11732,44 @@
       <c r="AR48" s="4"/>
     </row>
     <row r="49" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="6" t="s">
+      <c r="M49" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6" t="s">
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
       <c r="X49" s="4"/>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
-      <c r="AC49" s="7"/>
-      <c r="AD49" s="7"/>
-      <c r="AE49" s="7"/>
-      <c r="AF49" s="7"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
       <c r="AG49" s="4"/>
       <c r="AH49" s="4"/>
       <c r="AI49" s="4"/>
@@ -11784,46 +11784,46 @@
       <c r="AR49" s="4"/>
     </row>
     <row r="50" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="6" t="s">
+      <c r="M50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6" t="s">
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
       <c r="X50" s="4"/>
-      <c r="Y50" s="7" t="s">
+      <c r="Y50" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="7"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="7"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
       <c r="AG50" s="4"/>
       <c r="AH50" s="4"/>
       <c r="AI50" s="4"/>
@@ -11838,42 +11838,42 @@
       <c r="AR50" s="4"/>
     </row>
     <row r="51" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6" t="s">
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
       <c r="X51" s="4"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
-      <c r="AC51" s="7"/>
-      <c r="AD51" s="7"/>
-      <c r="AE51" s="7"/>
-      <c r="AF51" s="7"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
       <c r="AG51" s="4"/>
       <c r="AH51" s="4"/>
       <c r="AI51" s="4"/>
@@ -11888,46 +11888,46 @@
       <c r="AR51" s="4"/>
     </row>
     <row r="52" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="6" t="s">
+      <c r="M52" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6" t="s">
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
       <c r="X52" s="4"/>
-      <c r="Y52" s="7" t="s">
+      <c r="Y52" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="7"/>
-      <c r="AD52" s="7"/>
-      <c r="AE52" s="7"/>
-      <c r="AF52" s="7"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
       <c r="AG52" s="4"/>
       <c r="AH52" s="4"/>
       <c r="AI52" s="4"/>
@@ -11942,19 +11942,19 @@
       <c r="AR52" s="4"/>
     </row>
     <row r="53" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -11968,14 +11968,14 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
-      <c r="AC53" s="7"/>
-      <c r="AD53" s="7"/>
-      <c r="AE53" s="7"/>
-      <c r="AF53" s="7"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
       <c r="AG53" s="4"/>
       <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
@@ -11990,40 +11990,40 @@
       <c r="AR53" s="4"/>
     </row>
     <row r="54" spans="1:44" ht="24" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="13"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="26"/>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="7"/>
-      <c r="AB54" s="7"/>
-      <c r="AC54" s="7"/>
-      <c r="AD54" s="7"/>
-      <c r="AE54" s="7"/>
-      <c r="AF54" s="7"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
       <c r="AG54" s="4"/>
       <c r="AH54" s="4"/>
       <c r="AI54" s="4"/>
@@ -12038,44 +12038,44 @@
       <c r="AR54" s="4"/>
     </row>
     <row r="55" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="8" t="s">
+      <c r="M55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8" t="s">
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
-      <c r="AC55" s="7"/>
-      <c r="AD55" s="7"/>
-      <c r="AE55" s="7"/>
-      <c r="AF55" s="7"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
       <c r="AG55" s="4"/>
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
@@ -12090,44 +12090,44 @@
       <c r="AR55" s="4"/>
     </row>
     <row r="56" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="6" t="s">
+      <c r="M56" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6" t="s">
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="7"/>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
-      <c r="AC56" s="7"/>
-      <c r="AD56" s="7"/>
-      <c r="AE56" s="7"/>
-      <c r="AF56" s="7"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
       <c r="AG56" s="4"/>
       <c r="AH56" s="4"/>
       <c r="AI56" s="4"/>
@@ -12142,44 +12142,44 @@
       <c r="AR56" s="4"/>
     </row>
     <row r="57" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="6" t="s">
+      <c r="M57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6" t="s">
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
-      <c r="Y57" s="7" t="s">
+      <c r="Y57" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="7"/>
-      <c r="AD57" s="7"/>
-      <c r="AE57" s="7"/>
-      <c r="AF57" s="7"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11"/>
+      <c r="AD57" s="11"/>
+      <c r="AE57" s="11"/>
+      <c r="AF57" s="11"/>
       <c r="AG57" s="4"/>
       <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
@@ -12206,30 +12206,30 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="6" t="s">
+      <c r="M58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6" t="s">
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="7"/>
-      <c r="AC58" s="7"/>
-      <c r="AD58" s="7"/>
-      <c r="AE58" s="7"/>
-      <c r="AF58" s="7"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
+      <c r="AF58" s="11"/>
       <c r="AG58" s="4"/>
       <c r="AH58" s="4"/>
       <c r="AI58" s="4"/>
@@ -12256,32 +12256,32 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="6" t="s">
+      <c r="M59" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6" t="s">
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
-      <c r="Y59" s="6" t="s">
+      <c r="Y59" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Z59" s="6"/>
-      <c r="AA59" s="6"/>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="6"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
       <c r="AG59" s="4"/>
       <c r="AH59" s="4"/>
       <c r="AI59" s="4"/>
@@ -12308,19 +12308,19 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="6" t="s">
+      <c r="M60" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6" t="s">
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
@@ -12346,33 +12346,33 @@
       <c r="AR60" s="4"/>
     </row>
     <row r="61" spans="1:44" ht="19" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="6" t="s">
+      <c r="M61" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6" t="s">
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
@@ -12398,33 +12398,33 @@
       <c r="AR61" s="4"/>
     </row>
     <row r="62" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="6" t="s">
+      <c r="M62" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6" t="s">
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
@@ -12450,21 +12450,21 @@
       <c r="AR62" s="4"/>
     </row>
     <row r="63" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="18" t="s">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="20"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="14"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -12500,17 +12500,17 @@
       <c r="AR63" s="4"/>
     </row>
     <row r="64" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="23"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="17"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -12546,17 +12546,17 @@
       <c r="AR64" s="4"/>
     </row>
     <row r="65" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="23"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="17"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -12592,17 +12592,17 @@
       <c r="AR65" s="4"/>
     </row>
     <row r="66" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="23"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="17"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -12638,17 +12638,17 @@
       <c r="AR66" s="4"/>
     </row>
     <row r="67" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="23"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="17"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -12684,17 +12684,17 @@
       <c r="AR67" s="4"/>
     </row>
     <row r="68" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="23"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="17"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -12730,17 +12730,17 @@
       <c r="AR68" s="4"/>
     </row>
     <row r="69" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="26"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="20"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -12776,19 +12776,19 @@
       <c r="AR69" s="4"/>
     </row>
     <row r="70" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="18" t="s">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="20"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="14"/>
       <c r="L70" s="5"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -12824,17 +12824,17 @@
       <c r="AR70" s="4"/>
     </row>
     <row r="71" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="23"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="17"/>
       <c r="L71" s="5"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -12870,17 +12870,17 @@
       <c r="AR71" s="4"/>
     </row>
     <row r="72" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="23"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="17"/>
       <c r="L72" s="5"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -12916,17 +12916,17 @@
       <c r="AR72" s="4"/>
     </row>
     <row r="73" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="23"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="17"/>
       <c r="L73" s="5"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -12962,17 +12962,17 @@
       <c r="AR73" s="4"/>
     </row>
     <row r="74" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="23"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="17"/>
       <c r="L74" s="5"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -13008,17 +13008,17 @@
       <c r="AR74" s="4"/>
     </row>
     <row r="75" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="23"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="17"/>
       <c r="L75" s="5"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
@@ -13054,17 +13054,17 @@
       <c r="AR75" s="4"/>
     </row>
     <row r="76" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="23"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="17"/>
       <c r="L76" s="5"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -13100,17 +13100,17 @@
       <c r="AR76" s="4"/>
     </row>
     <row r="77" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="23"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="17"/>
       <c r="L77" s="5"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -13146,17 +13146,17 @@
       <c r="AR77" s="4"/>
     </row>
     <row r="78" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="23"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="17"/>
       <c r="L78" s="5"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -13192,17 +13192,17 @@
       <c r="AR78" s="4"/>
     </row>
     <row r="79" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="23"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="17"/>
       <c r="L79" s="5"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
@@ -13238,17 +13238,17 @@
       <c r="AR79" s="4"/>
     </row>
     <row r="80" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="23"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="17"/>
       <c r="L80" s="5"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
@@ -13284,17 +13284,17 @@
       <c r="AR80" s="4"/>
     </row>
     <row r="81" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="23"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="17"/>
       <c r="L81" s="5"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
@@ -13330,17 +13330,17 @@
       <c r="AR81" s="4"/>
     </row>
     <row r="82" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="26"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="20"/>
       <c r="L82" s="5"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
@@ -13405,122 +13405,144 @@
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="99" spans="5:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="E99" s="16"/>
-      <c r="L99" s="16"/>
+      <c r="E99" s="7"/>
+      <c r="L99" s="7"/>
     </row>
     <row r="100" spans="5:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="E100" s="16"/>
-      <c r="L100" s="16"/>
+      <c r="E100" s="7"/>
+      <c r="L100" s="7"/>
     </row>
     <row r="101" spans="5:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="E101" s="16"/>
-      <c r="L101" s="16"/>
+      <c r="E101" s="7"/>
+      <c r="L101" s="7"/>
     </row>
     <row r="102" spans="5:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="E102" s="16"/>
-      <c r="L102" s="16"/>
+      <c r="E102" s="7"/>
+      <c r="L102" s="7"/>
     </row>
     <row r="103" spans="5:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="E103" s="16"/>
-      <c r="L103" s="16"/>
+      <c r="E103" s="7"/>
+      <c r="L103" s="7"/>
     </row>
     <row r="104" spans="5:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="E104" s="16"/>
-      <c r="L104" s="16"/>
+      <c r="E104" s="7"/>
+      <c r="L104" s="7"/>
     </row>
     <row r="105" spans="5:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="E105" s="16"/>
+      <c r="E105" s="7"/>
     </row>
     <row r="106" spans="5:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="E106" s="16"/>
+      <c r="E106" s="7"/>
     </row>
     <row r="107" spans="5:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="E107" s="16"/>
+      <c r="E107" s="7"/>
     </row>
     <row r="108" spans="5:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="E108" s="16"/>
+      <c r="E108" s="7"/>
     </row>
     <row r="109" spans="5:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="E109" s="16"/>
+      <c r="E109" s="7"/>
     </row>
     <row r="110" spans="5:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="E110" s="16"/>
+      <c r="E110" s="7"/>
     </row>
     <row r="111" spans="5:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="E111" s="16"/>
+      <c r="E111" s="7"/>
     </row>
     <row r="112" spans="5:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="E112" s="16"/>
+      <c r="E112" s="7"/>
     </row>
     <row r="113" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E113" s="16"/>
+      <c r="E113" s="7"/>
     </row>
     <row r="114" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E114" s="16"/>
+      <c r="E114" s="7"/>
     </row>
     <row r="115" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E115" s="16"/>
+      <c r="E115" s="7"/>
     </row>
     <row r="119" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E119" s="16"/>
+      <c r="E119" s="7"/>
     </row>
     <row r="120" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E120" s="16"/>
+      <c r="E120" s="7"/>
     </row>
     <row r="121" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E121" s="16"/>
+      <c r="E121" s="7"/>
     </row>
     <row r="122" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E122" s="16"/>
+      <c r="E122" s="7"/>
     </row>
     <row r="123" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E123" s="16"/>
+      <c r="E123" s="7"/>
     </row>
     <row r="124" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E124" s="16"/>
+      <c r="E124" s="7"/>
     </row>
     <row r="125" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E125" s="16"/>
+      <c r="E125" s="7"/>
     </row>
     <row r="126" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E126" s="16"/>
+      <c r="E126" s="7"/>
     </row>
     <row r="127" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E127" s="16"/>
+      <c r="E127" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="A63:F82"/>
-    <mergeCell ref="G63:K69"/>
-    <mergeCell ref="G70:K82"/>
+    <mergeCell ref="Y59:AF59"/>
+    <mergeCell ref="Y50:AF51"/>
+    <mergeCell ref="Y52:AF56"/>
+    <mergeCell ref="Y57:AF58"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="Q47:W47"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M54:U54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:U55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:U56"/>
+    <mergeCell ref="P57:U57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:U58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M46:W46"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="Y46:AF46"/>
+    <mergeCell ref="Y47:AF49"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="Q51:W51"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="Q48:W48"/>
+    <mergeCell ref="Q49:W49"/>
+    <mergeCell ref="Q50:W50"/>
     <mergeCell ref="P59:U59"/>
     <mergeCell ref="M62:O62"/>
     <mergeCell ref="P62:U62"/>
@@ -13537,34 +13559,12 @@
     <mergeCell ref="P60:U60"/>
     <mergeCell ref="M61:O61"/>
     <mergeCell ref="P61:U61"/>
-    <mergeCell ref="M46:W46"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="Y46:AF46"/>
-    <mergeCell ref="Y47:AF49"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="Q51:W51"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="Q48:W48"/>
-    <mergeCell ref="Q49:W49"/>
-    <mergeCell ref="Q50:W50"/>
-    <mergeCell ref="Y59:AF59"/>
-    <mergeCell ref="Y50:AF51"/>
-    <mergeCell ref="Y52:AF56"/>
-    <mergeCell ref="Y57:AF58"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="Q47:W47"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M54:U54"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:U55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:U56"/>
-    <mergeCell ref="P57:U57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:U58"/>
-    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="A63:F82"/>
+    <mergeCell ref="G63:K69"/>
+    <mergeCell ref="G70:K82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
